--- a/biology/Neurosciences/Noyau_lenticulaire/Noyau_lenticulaire.xlsx
+++ b/biology/Neurosciences/Noyau_lenticulaire/Noyau_lenticulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En neuroanatomie, le noyau lenticulaire (ou lentiforme, du fait de sa forme qui évoque celle d'une lentille) est un ensemble de noyaux des ganglions de la base composé du putamen et du globus pallidus (segment externe et interne respectivement). Au sein de chaque hémisphère cérébral, les noyaux lenticulaires sont situés en profondeur, médialement et inférieurement. Ils sont situés latéralement aux noyaux caudés.
 </t>
@@ -511,7 +523,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Section coronale du cerveau, immédiatement en avant du pont.
@@ -547,7 +561,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau lenticulaire possède deux origines différentes : le globus pallidus est d'origine diencéphalique ; le putamen est d'origine télencéphalique 
 </t>
@@ -578,7 +594,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau lenticulaire  est un ensemble de noyaux des ganglions de la base composé du putamen et du globus pallidus. Le putamen reçoit des informations provenant du cortex cérébral qu'il traite et retransmet au globus pallidus. Ces informations sont à nouveau traitées et retournent au cortex moteur cérébral via le thalamus.
 </t>
